--- a/Practice/Employees.xlsx
+++ b/Practice/Employees.xlsx
@@ -454,19 +454,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Riya Kumar</t>
+          <t>Suraj Kumar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>79078</v>
+        <v>92363</v>
       </c>
     </row>
     <row r="3">
@@ -475,19 +475,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amit Verma</t>
+          <t>Sneha Sharma</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>68669</v>
+        <v>53816</v>
       </c>
     </row>
     <row r="4">
@@ -496,19 +496,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sneha Patel</t>
+          <t>Anish Mehra</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24206</v>
+        <v>41452</v>
       </c>
     </row>
     <row r="5">
@@ -517,11 +517,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sneha Joshi</t>
+          <t>Amit Kumar</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>55477</v>
+        <v>87991</v>
       </c>
     </row>
     <row r="6">
@@ -538,11 +538,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kiran Verma</t>
+          <t>Kiran Joshi</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>95130</v>
+        <v>88095</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anish Joshi</t>
+          <t>Suraj Sharma</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -567,11 +567,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>40809</v>
+        <v>91667</v>
       </c>
     </row>
     <row r="8">
@@ -580,11 +580,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Riya Chauhan</t>
+          <t>Mohan Sharma</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35203</v>
+        <v>40395</v>
       </c>
     </row>
     <row r="9">
@@ -601,19 +601,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anish Mehra</t>
+          <t>Suraj Patel</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23711</v>
+        <v>63103</v>
       </c>
     </row>
     <row r="10">
@@ -622,19 +622,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anish Kumar</t>
+          <t>Sneha Reddy</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98155</v>
+        <v>68578</v>
       </c>
     </row>
     <row r="11">
@@ -643,19 +643,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pooja Chauhan</t>
+          <t>Suraj Patel</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>57593</v>
+        <v>46628</v>
       </c>
     </row>
     <row r="12">
@@ -664,11 +664,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Riya Sharma</t>
+          <t>Mohan Singh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>92752</v>
+        <v>53971</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amit Verma</t>
+          <t>Riya Chauhan</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>83566</v>
+        <v>67678</v>
       </c>
     </row>
     <row r="14">
@@ -706,19 +706,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sneha Patel</t>
+          <t>Anish Singh</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33403</v>
+        <v>70969</v>
       </c>
     </row>
     <row r="15">
@@ -727,19 +727,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mohan Reddy</t>
+          <t>Anish Patel</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>47360</v>
+        <v>93755</v>
       </c>
     </row>
     <row r="16">
@@ -748,19 +748,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kiran Reddy</t>
+          <t>Pooja Mehra</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>78971</v>
+        <v>94554</v>
       </c>
     </row>
     <row r="17">
@@ -769,19 +769,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kiran Patel</t>
+          <t>Pooja Reddy</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39207</v>
+        <v>29488</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sneha Singh</t>
+          <t>Mohan Singh</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>72143</v>
+        <v>74915</v>
       </c>
     </row>
     <row r="19">
@@ -811,19 +811,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pooja Sharma</t>
+          <t>Suraj Joshi</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25062</v>
+        <v>39863</v>
       </c>
     </row>
     <row r="20">
@@ -832,19 +832,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kiran Chauhan</t>
+          <t>Neha Patel</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>85073</v>
+        <v>56960</v>
       </c>
     </row>
     <row r="21">
@@ -853,19 +853,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amit Verma</t>
+          <t>Pooja Joshi</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>97579</v>
+        <v>63752</v>
       </c>
     </row>
     <row r="22">
@@ -874,19 +874,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rahul Joshi</t>
+          <t>Sneha Sharma</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>47149</v>
+        <v>72961</v>
       </c>
     </row>
     <row r="23">
@@ -895,19 +895,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amit Joshi</t>
+          <t>Anish Patel</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>70034</v>
+        <v>40528</v>
       </c>
     </row>
     <row r="24">
@@ -916,19 +916,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pooja Mehra</t>
+          <t>Pooja Verma</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37489</v>
+        <v>96611</v>
       </c>
     </row>
     <row r="25">
@@ -937,11 +937,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Neha Verma</t>
+          <t>Suraj Reddy</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58680</v>
+        <v>51297</v>
       </c>
     </row>
     <row r="26">
@@ -958,19 +958,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rahul Singh</t>
+          <t>Suraj Gupta</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23212</v>
+        <v>96189</v>
       </c>
     </row>
     <row r="27">
@@ -979,19 +979,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mohan Gupta</t>
+          <t>Riya Reddy</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>55896</v>
+        <v>80453</v>
       </c>
     </row>
     <row r="28">
@@ -1000,19 +1000,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amit Chauhan</t>
+          <t>Anish Verma</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77761</v>
+        <v>27556</v>
       </c>
     </row>
     <row r="29">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Neha Verma</t>
+          <t>Rahul Chauhan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>82278</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="30">
@@ -1042,19 +1042,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kiran Joshi</t>
+          <t>Riya Reddy</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>60149</v>
+        <v>92614</v>
       </c>
     </row>
     <row r="31">
@@ -1063,19 +1063,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anish Mehra</t>
+          <t>Amit Singh</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>71373</v>
+        <v>96893</v>
       </c>
     </row>
     <row r="32">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Neha Kumar</t>
+          <t>Sneha Verma</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>84325</v>
+        <v>32584</v>
       </c>
     </row>
     <row r="33">
@@ -1105,19 +1105,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rahul Kumar</t>
+          <t>Suraj Singh</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80066</v>
+        <v>30293</v>
       </c>
     </row>
     <row r="34">
@@ -1126,19 +1126,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kiran Verma</t>
+          <t>Anish Gupta</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>79035</v>
+        <v>48253</v>
       </c>
     </row>
     <row r="35">
@@ -1147,11 +1147,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pooja Chauhan</t>
+          <t>Neha Patel</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>57221</v>
+        <v>61115</v>
       </c>
     </row>
     <row r="36">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kiran Kumar</t>
+          <t>Sneha Singh</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>96902</v>
+        <v>80973</v>
       </c>
     </row>
     <row r="37">
@@ -1189,19 +1189,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Neha Gupta</t>
+          <t>Mohan Chauhan</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>71457</v>
+        <v>36444</v>
       </c>
     </row>
     <row r="38">
@@ -1210,11 +1210,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sneha Verma</t>
+          <t>Anish Chauhan</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30901</v>
+        <v>36926</v>
       </c>
     </row>
     <row r="39">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Suraj Reddy</t>
+          <t>Suraj Mehra</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46574</v>
+        <v>87444</v>
       </c>
     </row>
     <row r="40">
@@ -1252,19 +1252,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sneha Mehra</t>
+          <t>Kiran Gupta</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>85500</v>
+        <v>76099</v>
       </c>
     </row>
     <row r="41">
@@ -1273,19 +1273,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amit Kumar</t>
+          <t>Rahul Patel</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>24301</v>
+        <v>22044</v>
       </c>
     </row>
     <row r="42">
@@ -1294,19 +1294,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kiran Sharma</t>
+          <t>Suraj Patel</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24447</v>
+        <v>68623</v>
       </c>
     </row>
     <row r="43">
@@ -1315,11 +1315,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Anish Verma</t>
+          <t>Amit Patel</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>32571</v>
+        <v>36740</v>
       </c>
     </row>
     <row r="44">
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rahul Sharma</t>
+          <t>Amit Mehra</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40330</v>
+        <v>33341</v>
       </c>
     </row>
     <row r="45">
@@ -1357,19 +1357,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Neha Reddy</t>
+          <t>Pooja Verma</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60428</v>
+        <v>77090</v>
       </c>
     </row>
     <row r="46">
@@ -1378,19 +1378,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Suraj Gupta</t>
+          <t>Kiran Gupta</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>75896</v>
+        <v>43782</v>
       </c>
     </row>
     <row r="47">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pooja Kumar</t>
+          <t>Kiran Reddy</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>52917</v>
+        <v>50393</v>
       </c>
     </row>
     <row r="48">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Rahul Gupta</t>
+          <t>Anish Sharma</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>59984</v>
+        <v>82752</v>
       </c>
     </row>
     <row r="49">
@@ -1441,11 +1441,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pooja Reddy</t>
+          <t>Neha Patel</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>65467</v>
+        <v>36610</v>
       </c>
     </row>
     <row r="50">
@@ -1462,19 +1462,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mohan Gupta</t>
+          <t>Riya Gupta</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29272</v>
+        <v>43257</v>
       </c>
     </row>
     <row r="51">
@@ -1483,19 +1483,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Anish Mehra</t>
+          <t>Sneha Gupta</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>75748</v>
+        <v>28638</v>
       </c>
     </row>
   </sheetData>
